--- a/public/assets/rekap wilkerstat.xlsx
+++ b/public/assets/rekap wilkerstat.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Count of idSLS</t>
-  </si>
-  <si>
-    <t>Count of jumlah_art_tani</t>
-  </si>
-  <si>
     <t>3513210001000100</t>
   </si>
   <si>
@@ -624,6 +618,18 @@
   </si>
   <si>
     <t>3513210011000600</t>
+  </si>
+  <si>
+    <t>Count of id sls</t>
+  </si>
+  <si>
+    <t>Sum of jumlah_art_tani</t>
+  </si>
+  <si>
+    <t>3513210007001600</t>
+  </si>
+  <si>
+    <t>3513210010001400</t>
   </si>
 </sst>
 </file>
@@ -941,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,422 +965,422 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
       <c r="C5">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B30">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B31">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B33">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B34">
         <v>36</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -1385,7 +1391,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>49</v>
@@ -1396,7 +1402,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>45</v>
@@ -1407,260 +1413,260 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="B42">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B43">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B48">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>54</v>
-      </c>
       <c r="C50">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B51">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="B52">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="B56">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B57">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="B59">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="B60">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B61">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B62">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C62">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C64">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B65">
         <v>45</v>
@@ -1671,293 +1677,293 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C66">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C68">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B69">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C69">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C70">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="B71">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C71">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B72">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C72">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B73">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C73">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B74">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C75">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="B77">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C77">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="B78">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C78">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B79">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C79">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B80">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B81">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C81">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="B82">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B83">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C83">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B84">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B85">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="C85">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="B86">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="C86">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B87">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C87">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="B88">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C88">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B89">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C89">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B90">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C90">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="B91">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C91">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="B92">
         <v>45</v>
@@ -1968,120 +1974,120 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B93">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C93">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C94">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B95">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B96">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C96">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C97">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="B98">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C98">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B99">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C99">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B100">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B101">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B102">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="B103">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C103">
         <v>50</v>
@@ -2089,150 +2095,150 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B104">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C104">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B105">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C105">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B106">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="B107">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B108">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C108">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="B109">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C109">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="B110">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C110">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B111">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C111">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B112">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C112">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B114">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C114">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B115">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C115">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B116">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C116">
-        <v>123</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="B117">
         <v>54</v>
@@ -2243,799 +2249,799 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="B118">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C118">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C119">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="B120">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C120">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="B121">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C121">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="B122">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C122">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B123">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C123">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B124">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C124">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B125">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C125">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C126">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B127">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C127">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B128">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C128">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B129">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B130">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B131">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C131">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="B132">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C132">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="B133">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B134">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C134">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B135">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C135">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B136">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C136">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B137">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C137">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B138">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C138">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B139">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C139">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B140">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C140">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B141">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C141">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="B142">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C142">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C143">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C144">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="B145">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C145">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="B146">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C146">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="B147">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C147">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="B148">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C148">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B149">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C149">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="B150">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C150">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="B151">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C151">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B152">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C152">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B153">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C153">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="B154">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B155">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C155">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B156">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C156">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B157">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C157">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="B158">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C158">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B159">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C159">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="B160">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C160">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="B161">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C161">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="B162">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C162">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="B163">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C163">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="B164">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C164">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B165">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C165">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="B166">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C166">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="B167">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C167">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="B168">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C168">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="B169">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C169">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="B170">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C170">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B171">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C171">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="B172">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C172">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B173">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C173">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B174">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C174">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B175">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C175">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="B176">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C176">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B177">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C177">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="B178">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C178">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="B179">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="B180">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C180">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="B181">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C181">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B182">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C183">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="B184">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C184">
-        <v>47</v>
+        <v>123</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="B185">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="C185">
-        <v>32</v>
+        <v>114</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B186">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C186">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="B187">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C187">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B188">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C188">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B190">
         <v>39</v>
@@ -3046,90 +3052,112 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="B191">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C191">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C192">
-        <v>13</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C193">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="B194">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C194">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="B195">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C195">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B196">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C196">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="B197">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C197">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="B198">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C198">
-        <v>14</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>91</v>
+      </c>
+      <c r="B199">
+        <v>45</v>
+      </c>
+      <c r="C199">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>92</v>
+      </c>
+      <c r="B200">
+        <v>97</v>
+      </c>
+      <c r="C200">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/rekap wilkerstat.xlsx
+++ b/public/assets/rekap wilkerstat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Row Labels</t>
   </si>
@@ -596,9 +596,6 @@
     <t>3513210008000900</t>
   </si>
   <si>
-    <t>3513210010006004</t>
-  </si>
-  <si>
     <t>3513210001002600</t>
   </si>
   <si>
@@ -630,6 +627,45 @@
   </si>
   <si>
     <t>3513210010001400</t>
+  </si>
+  <si>
+    <t>3513210001001300</t>
+  </si>
+  <si>
+    <t>3513210003000100</t>
+  </si>
+  <si>
+    <t>3513210004000400</t>
+  </si>
+  <si>
+    <t>3513210005001300</t>
+  </si>
+  <si>
+    <t>3513210007001300</t>
+  </si>
+  <si>
+    <t>3513210007001800</t>
+  </si>
+  <si>
+    <t>3513210010002200</t>
+  </si>
+  <si>
+    <t>3513210007001500</t>
+  </si>
+  <si>
+    <t>3513210001001200</t>
+  </si>
+  <si>
+    <t>3513210007001700</t>
+  </si>
+  <si>
+    <t>3513210010002000</t>
+  </si>
+  <si>
+    <t>3513210010002100</t>
+  </si>
+  <si>
+    <t>3513210010000100</t>
   </si>
 </sst>
 </file>
@@ -947,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
         <v>198</v>
-      </c>
-      <c r="C1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,10 +1078,10 @@
         <v>185</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1111,10 @@
         <v>168</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1133,10 @@
         <v>169</v>
       </c>
       <c r="B13">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,13 +1262,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1375,10 @@
         <v>11</v>
       </c>
       <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
         <v>25</v>
-      </c>
-      <c r="C35">
-        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,10 +1419,10 @@
         <v>139</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1471,10 +1507,10 @@
         <v>186</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1526,10 +1562,10 @@
         <v>156</v>
       </c>
       <c r="B52">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,10 +1573,10 @@
         <v>188</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1559,10 +1595,10 @@
         <v>177</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,21 +1606,21 @@
         <v>178</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,10 +1639,10 @@
         <v>157</v>
       </c>
       <c r="B59">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C59">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,10 +1771,10 @@
         <v>158</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C71">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,10 +1804,10 @@
         <v>125</v>
       </c>
       <c r="B74">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C74">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,10 +1826,10 @@
         <v>31</v>
       </c>
       <c r="B76">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C76">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,21 +1837,21 @@
         <v>179</v>
       </c>
       <c r="B77">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C78">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1952,7 +1988,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B91">
         <v>49</v>
@@ -2087,10 +2123,10 @@
         <v>171</v>
       </c>
       <c r="B103">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C103">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,10 +2189,10 @@
         <v>180</v>
       </c>
       <c r="B109">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C109">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,10 +2200,10 @@
         <v>162</v>
       </c>
       <c r="B110">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2219,10 +2255,10 @@
         <v>126</v>
       </c>
       <c r="B115">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C115">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="C118">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2362,10 +2398,10 @@
         <v>142</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2403,7 +2439,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B132">
         <v>14</v>
@@ -2414,13 +2450,13 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,7 +2500,7 @@
         <v>42</v>
       </c>
       <c r="C137">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,7 +2511,7 @@
         <v>29</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,10 +2541,10 @@
         <v>164</v>
       </c>
       <c r="B141">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C141">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,10 +2805,10 @@
         <v>108</v>
       </c>
       <c r="B165">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C165">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,13 +2901,13 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B174">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,10 +2915,10 @@
         <v>165</v>
       </c>
       <c r="B175">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C175">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,10 +2970,10 @@
         <v>148</v>
       </c>
       <c r="B180">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C180">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2953,211 +2989,343 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B182">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="C182">
-        <v>22</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="B183">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C183">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B184">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C184">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B185">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C185">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="B186">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C186">
-        <v>52</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B187">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C187">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="B188">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C188">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="B189">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C189">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="B190">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C190">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B191">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C191">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="B192">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C192">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="B193">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C193">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B194">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C194">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="B195">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C195">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B196">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C196">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B197">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C197">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B198">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C198">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B199">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C199">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="B200">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C200">
-        <v>97</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>46</v>
+      </c>
+      <c r="C201">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>61</v>
+      </c>
+      <c r="C202">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>28</v>
+      </c>
+      <c r="C203">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>20</v>
+      </c>
+      <c r="C205">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>53</v>
+      </c>
+      <c r="C206">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>34</v>
+      </c>
+      <c r="C208">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>43</v>
+      </c>
+      <c r="C210">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>24</v>
+      </c>
+      <c r="C211">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>62</v>
+      </c>
+      <c r="C212">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
